--- a/ПКМ/resdata PKM Temp=-20, Volume=10x15x4.xlsx
+++ b/ПКМ/resdata PKM Temp=-20, Volume=10x15x4.xlsx
@@ -527,7 +527,7 @@
         <v>943.962656025712</v>
       </c>
       <c r="E3" t="n">
-        <v>472.891443047045</v>
+        <v>472.8488494756599</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>6.871164952867872</v>
+        <v>6.871173910979326</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>533.6624466725135</v>
+        <v>533.6628348919413</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>952.3719829019898</v>
+        <v>952.3727403600269</v>
       </c>
       <c r="E5" t="n">
-        <v>479.7626079999129</v>
+        <v>479.7200233866392</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7792738862552575</v>
+        <v>0.7792737938615207</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1220323253105471</v>
+        <v>0.1220321751491279</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0309862154562443</v>
+        <v>0.03098629525320442</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06117615767210138</v>
+        <v>0.06117631760158796</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006531415305849612</v>
+        <v>0.006531418134558918</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>462.0120028708155</v>
+        <v>462.0096099275911</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>870.549994434588</v>
+        <v>870.5475864463765</v>
       </c>
       <c r="E6" t="n">
-        <v>479.7626079999129</v>
+        <v>479.7200233866392</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7792738862552575</v>
+        <v>0.7792737938615207</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1220323253105471</v>
+        <v>0.1220321751491279</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0309862154562443</v>
+        <v>0.03098629525320442</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06117615767210138</v>
+        <v>0.06117631760158796</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006531415305849612</v>
+        <v>0.006531418134558918</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>297.8347917171847</v>
+        <v>297.8309674500401</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>688.1844680553302</v>
+        <v>688.180585305849</v>
       </c>
       <c r="E7" t="n">
-        <v>479.7626079999129</v>
+        <v>479.7200233866392</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7792738862552575</v>
+        <v>0.7792737938615207</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1220323253105471</v>
+        <v>0.1220321751491279</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0309862154562443</v>
+        <v>0.03098629525320442</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06117615767210138</v>
+        <v>0.06117631760158796</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006531415305849612</v>
+        <v>0.006531418134558918</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>232.0412633106655</v>
+        <v>232.0514522796713</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>617.0150390672417</v>
+        <v>617.0262610869714</v>
       </c>
       <c r="E8" t="n">
-        <v>479.7626079999129</v>
+        <v>479.7200233866392</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7792738862552575</v>
+        <v>0.7792737938615207</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1220323253105471</v>
+        <v>0.1220321751491279</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0309862154562443</v>
+        <v>0.03098629525320442</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06117615767210138</v>
+        <v>0.06117631760158796</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006531415305849612</v>
+        <v>0.006531418134558918</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>231.1183635931494</v>
+        <v>231.1285297176196</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>616.0237783824248</v>
+        <v>616.0349737232932</v>
       </c>
       <c r="E9" t="n">
-        <v>479.7626079999129</v>
+        <v>479.7200233866392</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7792738862552575</v>
+        <v>0.7792737938615207</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1220323253105471</v>
+        <v>0.1220321751491279</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0309862154562443</v>
+        <v>0.03098629525320442</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06117615767210138</v>
+        <v>0.06117631760158796</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006531415305849612</v>
+        <v>0.006531418134558918</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.8604329765712</v>
+        <v>171.8600495004018</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>552.7453806355246</v>
+        <v>552.7452448093482</v>
       </c>
       <c r="E10" t="n">
-        <v>479.7626079999129</v>
+        <v>479.7200233866392</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7792738862552575</v>
+        <v>0.7792737938615207</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1220323253105471</v>
+        <v>0.1220321751491279</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0309862154562443</v>
+        <v>0.03098629525320442</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06117615767210138</v>
+        <v>0.06117631760158796</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006531415305849612</v>
+        <v>0.006531418134558918</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>109.2662939627089</v>
+        <v>109.2643684068765</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>486.5923399403993</v>
+        <v>486.5905797661377</v>
       </c>
       <c r="E11" t="n">
-        <v>479.7626079999129</v>
+        <v>479.7200233866392</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7792738862552575</v>
+        <v>0.7792737938615207</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1220323253105471</v>
+        <v>0.1220321751491279</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0309862154562443</v>
+        <v>0.03098629525320442</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06117615767210138</v>
+        <v>0.06117631760158796</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006531415305849612</v>
+        <v>0.006531418134558918</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>6.513239396195985</v>
+        <v>6.513247887670842</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3579255566718918</v>
+        <v>0.3579260233084884</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>5.986940293052565</v>
+        <v>5.986947857289631</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>5.986940293052565</v>
+        <v>5.986947857289631</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>5.986940293052565</v>
+        <v>5.986947857289631</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>5.986940293052565</v>
+        <v>5.986947857289631</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.041621038312</v>
       </c>
       <c r="E6" t="n">
-        <v>2.381340838697665</v>
+        <v>2.381343847417606</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,16 +1149,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944166</v>
+        <v>0.05094889585944185</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489638</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522553</v>
+        <v>0.002008604154522552</v>
       </c>
     </row>
     <row r="7">
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.846599645200785</v>
+        <v>0.8473202319554268</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8943381412135796</v>
+        <v>0.8951317056140782</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9466214244782009</v>
+        <v>0.9465872191111232</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6012128752433217</v>
+        <v>0.6006179527367176</v>
       </c>
     </row>
     <row r="3">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.61382052448537</v>
+        <v>47.60722985954442</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.46601680515233</v>
+        <v>33.46285547748302</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493322960742673</v>
+        <v>0.8493322331917195</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.55236047916611</v>
+        <v>10.55069650943879</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8354053754532043</v>
+        <v>0.8354078894876517</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.212315522282093</v>
+        <v>3.211522153304316</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8100987017859262</v>
+        <v>0.8100936736046245</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3831277178848375</v>
+        <v>0.3821557193182922</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.186190421581256</v>
+        <v>0.1859303565425956</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07337797698698917</v>
+        <v>0.0733176880930297</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08206195247562027</v>
+        <v>0.08199481109749215</v>
       </c>
       <c r="D12" t="n">
-        <v>0.894177810463247</v>
+        <v>0.8941747302259734</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40337.40381530774</v>
+        <v>40336.88108439955</v>
       </c>
       <c r="C2" t="n">
-        <v>40744.85233869469</v>
+        <v>40744.32432767632</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88865.44926764854</v>
+        <v>88868.8704454971</v>
       </c>
       <c r="C3" t="n">
-        <v>89763.08006833185</v>
+        <v>89766.53580353243</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37765.69337000004</v>
+        <v>37762.82800464398</v>
       </c>
       <c r="C4" t="n">
-        <v>38147.16502020207</v>
+        <v>38144.2707117616</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>508.1539863439523</v>
+        <v>508.1545620860604</v>
       </c>
       <c r="C5" t="n">
-        <v>513.2868548928811</v>
+        <v>513.287436450566</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32399.46388469732</v>
+        <v>32400.69898820368</v>
       </c>
       <c r="C6" t="n">
-        <v>32726.73119666396</v>
+        <v>32727.97877596332</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35578.08817231929</v>
+        <v>35573.22499680039</v>
       </c>
       <c r="C7" t="n">
-        <v>35937.46280032252</v>
+        <v>35932.55050181857</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.32596264621627</v>
+        <v>34.31978065228589</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>112.2960270088902</v>
+        <v>112.301822371132</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.02330075241406</v>
+        <v>10.02368738410263</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>508.3081570531929</v>
+        <v>508.3079410961867</v>
       </c>
       <c r="C3" t="n">
-        <v>7.089560644406685</v>
+        <v>7.089206855437077</v>
       </c>
       <c r="D3" t="n">
-        <v>3430.490685763396</v>
+        <v>3430.493974299678</v>
       </c>
       <c r="E3" t="n">
-        <v>58.55423855941874</v>
+        <v>58.5484340271787</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>289.9676826055769</v>
+        <v>289.9644661287909</v>
       </c>
       <c r="C4" t="n">
-        <v>7.438275612273531</v>
+        <v>7.437927062367846</v>
       </c>
       <c r="D4" t="n">
-        <v>2766.747535473055</v>
+        <v>2766.752358840778</v>
       </c>
       <c r="E4" t="n">
-        <v>58.55423855941874</v>
+        <v>58.5484340271787</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>289.5331602072957</v>
+        <v>289.5130835467579</v>
       </c>
       <c r="C5" t="n">
-        <v>7.438275612273531</v>
+        <v>7.437927062367846</v>
       </c>
       <c r="D5" t="n">
-        <v>1287.47259406421</v>
+        <v>1287.362854837989</v>
       </c>
       <c r="E5" t="n">
-        <v>58.55423855941874</v>
+        <v>58.5484340271787</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167.09615073218</v>
+        <v>167.1030917353757</v>
       </c>
       <c r="C6" t="n">
-        <v>7.438275612273531</v>
+        <v>7.437927062367846</v>
       </c>
       <c r="D6" t="n">
-        <v>710.1545443171368</v>
+        <v>710.184420288566</v>
       </c>
       <c r="E6" t="n">
-        <v>58.55423855941874</v>
+        <v>58.5484340271787</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.0889181752955</v>
+        <v>161.0873222456129</v>
       </c>
       <c r="C7" t="n">
-        <v>0.63554683850502</v>
+        <v>0.6355211862563539</v>
       </c>
       <c r="D7" t="n">
-        <v>680.2061711138786</v>
+        <v>680.1992320448397</v>
       </c>
       <c r="E7" t="n">
-        <v>58.55423855941874</v>
+        <v>58.5484340271787</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>173.3139002632419</v>
+        <v>173.3083412577433</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6293090562412547</v>
+        <v>0.6293078514406141</v>
       </c>
       <c r="D8" t="n">
-        <v>2788.628245789778</v>
+        <v>2788.617300698875</v>
       </c>
       <c r="E8" t="n">
-        <v>15.69584658416807</v>
+        <v>15.69703073057863</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>161.0889180465985</v>
+        <v>161.0873221169188</v>
       </c>
       <c r="C9" t="n">
-        <v>0.63554683850502</v>
+        <v>0.6355211862563539</v>
       </c>
       <c r="D9" t="n">
-        <v>2758.633227605047</v>
+        <v>2758.631489988042</v>
       </c>
       <c r="E9" t="n">
-        <v>15.69584658416807</v>
+        <v>15.69703073057863</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>161.0889181752955</v>
+        <v>161.0873222456129</v>
       </c>
       <c r="C10" t="n">
-        <v>0.63554683850502</v>
+        <v>0.6355211862563539</v>
       </c>
       <c r="D10" t="n">
-        <v>714.79443094216</v>
+        <v>714.7803383763789</v>
       </c>
       <c r="E10" t="n">
-        <v>74.25008514358682</v>
+        <v>74.24546475775733</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>161.0889181752955</v>
+        <v>161.0873222456129</v>
       </c>
       <c r="C11" t="n">
-        <v>0.63554683850502</v>
+        <v>0.6355211862563539</v>
       </c>
       <c r="D11" t="n">
-        <v>714.79443094216</v>
+        <v>714.7803383763789</v>
       </c>
       <c r="E11" t="n">
-        <v>74.25008514358682</v>
+        <v>74.24863581705844</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2446,16 +2446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>69.52625719294167</v>
+        <v>69.52740779629113</v>
       </c>
       <c r="C12" t="n">
-        <v>0.63554683850502</v>
+        <v>0.6355211862563539</v>
       </c>
       <c r="D12" t="n">
-        <v>291.6248451168248</v>
+        <v>291.6296644103359</v>
       </c>
       <c r="E12" t="n">
-        <v>74.25008514358682</v>
+        <v>74.24546475775733</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>69.52715530264993</v>
+        <v>69.52773028030896</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>291.6286068425613</v>
+        <v>291.6310151323469</v>
       </c>
       <c r="E13" t="n">
-        <v>74.24250196917363</v>
+        <v>74.23958636318193</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>69.22625238166097</v>
+        <v>69.22686728672295</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>290.3683033973538</v>
+        <v>290.370878815676</v>
       </c>
       <c r="E14" t="n">
-        <v>68.19606334214878</v>
+        <v>68.19318069776</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>109.4497764937313</v>
+        <v>109.4527499914635</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1407487340180172</v>
+        <v>0.1407628394332456</v>
       </c>
       <c r="D15" t="n">
-        <v>459.0869575252348</v>
+        <v>459.0995384813195</v>
       </c>
       <c r="E15" t="n">
-        <v>63.7582155928653</v>
+        <v>63.7579281073358</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72.65460788251715</v>
+        <v>72.65482198070924</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1407486435268146</v>
+        <v>0.1407629434456872</v>
       </c>
       <c r="D16" t="n">
-        <v>304.2796567966127</v>
+        <v>304.2805658213738</v>
       </c>
       <c r="E16" t="n">
-        <v>63.75913663178331</v>
+        <v>63.75701923822994</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>665.6397643688796</v>
+        <v>665.6401773511705</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>83.85124930718298</v>
+        <v>83.85130133093949</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>90.73276389480402</v>
+        <v>90.7339519345165</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>379.8980824275445</v>
+        <v>379.9030567498206</v>
       </c>
       <c r="E19" t="n">
-        <v>83.85124930718298</v>
+        <v>83.85130133093949</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>120.9727424850947</v>
+        <v>120.9757968486198</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2048856287845556</v>
+        <v>0.2048806735705289</v>
       </c>
       <c r="D20" t="n">
-        <v>2706.921064916806</v>
+        <v>2706.937574182339</v>
       </c>
       <c r="E20" t="n">
-        <v>13.16665459308551</v>
+        <v>13.16302691062314</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>119.3536770331678</v>
+        <v>119.3529162700663</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1946413473453278</v>
+        <v>0.1946366398920025</v>
       </c>
       <c r="D21" t="n">
-        <v>501.0665203211108</v>
+        <v>501.0632895076578</v>
       </c>
       <c r="E21" t="n">
-        <v>13.16665459308551</v>
+        <v>13.16302691062314</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>106.1831934028432</v>
+        <v>106.1859499939375</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>444.5890307777045</v>
+        <v>444.6005726246163</v>
       </c>
       <c r="E22" t="n">
-        <v>665.6397643688796</v>
+        <v>665.6401773511705</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>487.78550004187</v>
       </c>
       <c r="E23" t="n">
-        <v>665.6397643688796</v>
+        <v>665.6401773511705</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>66.40611869839832</v>
+        <v>66.4062683568464</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>665.6397643688796</v>
+        <v>665.6401773511705</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>110.9786960326848</v>
+        <v>110.9816967673407</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1481565621242286</v>
+        <v>0.1481714099297322</v>
       </c>
       <c r="D25" t="n">
-        <v>2661.572855568179</v>
+        <v>2661.589396739786</v>
       </c>
       <c r="E25" t="n">
-        <v>50.5915218632169</v>
+        <v>50.5949604521284</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>505.5922936784032</v>
+        <v>505.5922837075069</v>
       </c>
       <c r="C26" t="n">
-        <v>6.517769215353789</v>
+        <v>6.517480175324209</v>
       </c>
       <c r="D26" t="n">
-        <v>3430.490685763396</v>
+        <v>3430.493974299678</v>
       </c>
       <c r="E26" t="n">
-        <v>52.49935007943186</v>
+        <v>52.49694714709184</v>
       </c>
       <c r="F26" t="n">
-        <v>6.855776722319204</v>
+        <v>6.855800393316669</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>198.1405858987848</v>
+        <v>198.1447971929941</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4691009272344994</v>
+        <v>0.4691002868283157</v>
       </c>
       <c r="D27" t="n">
-        <v>2853.462635937767</v>
+        <v>2853.471648991602</v>
       </c>
       <c r="E27" t="n">
-        <v>52.49935007943186</v>
+        <v>52.49694714709184</v>
       </c>
       <c r="F27" t="n">
-        <v>7.084660862576387</v>
+        <v>7.084680600677231</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>170.5401202586912</v>
+        <v>170.5356305244142</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5392122990645934</v>
+        <v>0.5392222379235139</v>
       </c>
       <c r="D28" t="n">
-        <v>2788.628245789778</v>
+        <v>2788.617300698875</v>
       </c>
       <c r="E28" t="n">
-        <v>15.69584658416807</v>
+        <v>15.69703073057863</v>
       </c>
       <c r="F28" t="n">
-        <v>6.880584459171094</v>
+        <v>6.880551615820194</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>191.1684940367972</v>
+        <v>191.169885970156</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4691009272344994</v>
+        <v>0.4691002868283157</v>
       </c>
       <c r="D29" t="n">
-        <v>2838.540314558436</v>
+        <v>2838.543341099243</v>
       </c>
       <c r="E29" t="n">
-        <v>68.19519666359993</v>
+        <v>68.19397787767048</v>
       </c>
       <c r="F29" t="n">
-        <v>7.052761342735222</v>
+        <v>7.052768473860716</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>120.9728854925203</v>
+        <v>120.974835872809</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2048737477952429</v>
+        <v>0.2048863325356829</v>
       </c>
       <c r="D30" t="n">
-        <v>2706.921683757704</v>
+        <v>2706.933415657652</v>
       </c>
       <c r="E30" t="n">
-        <v>68.19519666359993</v>
+        <v>68.19397787767048</v>
       </c>
       <c r="F30" t="n">
-        <v>7.117810690987279</v>
+        <v>7.117812813609347</v>
       </c>
       <c r="G30" t="n">
-        <v>99.98118968016284</v>
+        <v>99.98159487180448</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>110.9788611425485</v>
+        <v>110.9810248783295</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1481573790654171</v>
+        <v>0.1481680852784961</v>
       </c>
       <c r="D31" t="n">
-        <v>2661.573597204616</v>
+        <v>2661.58651138025</v>
       </c>
       <c r="E31" t="n">
-        <v>55.02850293395153</v>
+        <v>55.03101022246308</v>
       </c>
       <c r="F31" t="n">
-        <v>7.146484047398199</v>
+        <v>7.146485435296342</v>
       </c>
       <c r="G31" t="n">
-        <v>98.60925307909824</v>
+        <v>98.60968230039795</v>
       </c>
     </row>
     <row r="32">
@@ -2890,19 +2890,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>86.3228441396476</v>
+        <v>86.32952582458302</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008806436499362528</v>
+        <v>0.008805083753968776</v>
       </c>
       <c r="D32" t="n">
-        <v>2661.573597204616</v>
+        <v>2661.58651138025</v>
       </c>
       <c r="E32" t="n">
-        <v>4.436926710365469</v>
+        <v>4.436161459530048</v>
       </c>
       <c r="F32" t="n">
-        <v>8.436762680954804</v>
+        <v>8.436869394789381</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>82.32699230982473</v>
+        <v>82.33768785281944</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00225246168600274</v>
+        <v>0.002252417476853603</v>
       </c>
       <c r="D33" t="n">
-        <v>2654.995573122983</v>
+        <v>2655.015770452449</v>
       </c>
       <c r="E33" t="n">
-        <v>4.436926710365469</v>
+        <v>4.436161459530048</v>
       </c>
       <c r="F33" t="n">
-        <v>9.047076196635865</v>
+        <v>9.04714206786252</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.39065485359839</v>
+        <v>19.39033950227127</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00225246168600274</v>
+        <v>0.002252417476853603</v>
       </c>
       <c r="D34" t="n">
-        <v>81.36421028785533</v>
+        <v>81.36289056332602</v>
       </c>
       <c r="E34" t="n">
-        <v>4.436926710365469</v>
+        <v>4.436161459530048</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>21.40932476962723</v>
+        <v>21.40900914725904</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>90.46058798609073</v>
+        <v>90.45926826893577</v>
       </c>
       <c r="E35" t="n">
-        <v>4.436926710365469</v>
+        <v>4.436161459530048</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>493.3040443616732</v>
+        <v>493.3040033572908</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3453.475054959801</v>
+        <v>3453.474964573633</v>
       </c>
       <c r="E40" t="n">
-        <v>5.082071073668835</v>
+        <v>5.08207749464324</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>305.8432113199069</v>
       </c>
       <c r="E41" t="n">
-        <v>6.046438627024849</v>
+        <v>6.046405665421933</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>508.3040443616732</v>
+        <v>508.3040033572908</v>
       </c>
       <c r="C42" t="n">
-        <v>7.090123822779995</v>
+        <v>7.089871969799725</v>
       </c>
       <c r="D42" t="n">
-        <v>3430.4751218283</v>
+        <v>3430.476658477332</v>
       </c>
       <c r="E42" t="n">
-        <v>6.046438627024849</v>
+        <v>6.046405665421933</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>5.986940293052565</v>
+        <v>5.986947857289631</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>5.986940293052565</v>
+        <v>5.986947857289631</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>5.986940293052565</v>
+        <v>5.986947857289631</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>5.986940293052565</v>
+        <v>5.986947857289631</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.041621038312</v>
       </c>
       <c r="E6" t="n">
-        <v>2.381340838697665</v>
+        <v>2.381343847417606</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,16 +3406,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944166</v>
+        <v>0.05094889585944185</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489638</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522553</v>
+        <v>0.002008604154522552</v>
       </c>
     </row>
     <row r="7">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.753604189010088</v>
+        <v>1.755585815680342</v>
       </c>
       <c r="C2" t="n">
-        <v>1.925552129476137</v>
+        <v>1.927786775214652</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9107020070587084</v>
+        <v>0.9106742707501269</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2501616526461355</v>
+        <v>0.2498422430025686</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>143.4347635761465</v>
+        <v>143.4137745362113</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>32.87092853300624</v>
+        <v>32.86913656211794</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.254223968543997</v>
+        <v>6.254179434428623</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.79397953018208</v>
+        <v>41.79154967894699</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30.29359759344752</v>
+        <v>30.29191051439007</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8492803069501057</v>
+        <v>0.8492800263059943</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.975758412049656</v>
+        <v>8.975004344045674</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.836970126378161</v>
+        <v>0.8369709323648462</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.49543731393568</v>
+        <v>2.495485952846778</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8045811843305037</v>
+        <v>0.8045802283629064</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02918621074922463</v>
+        <v>0.02914886766447008</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03351013477813806</v>
+        <v>0.03347571572668668</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04035996117687341</v>
+        <v>0.04035300019895435</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0452165070710247</v>
+        <v>0.04520872430584134</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8925935192976588</v>
+        <v>0.892593206699717</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38862.57927307086</v>
+        <v>38860.63310158101</v>
       </c>
       <c r="C2" t="n">
-        <v>39255.13057885946</v>
+        <v>39253.16474907173</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86617.23893953976</v>
+        <v>86610.25103156424</v>
       </c>
       <c r="C3" t="n">
-        <v>87492.16054498966</v>
+        <v>87485.1020520851</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33802.98655257804</v>
+        <v>33792.81253755707</v>
       </c>
       <c r="C4" t="n">
-        <v>34144.43086118994</v>
+        <v>34134.15407834048</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>470.8141132419771</v>
+        <v>470.7849933137322</v>
       </c>
       <c r="C5" t="n">
-        <v>475.5698113555325</v>
+        <v>475.5403972865981</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30055.02304177755</v>
+        <v>30057.73673238446</v>
       </c>
       <c r="C6" t="n">
-        <v>30358.60913310864</v>
+        <v>30361.35023473178</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31420.37777770751</v>
+        <v>31418.36028704756</v>
       </c>
       <c r="C7" t="n">
-        <v>31737.75533101768</v>
+        <v>31735.7174616642</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28.75328762256667</v>
+        <v>28.74562274491816</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>110.8600474266739</v>
+        <v>110.8673818211044</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.771670945539663</v>
+        <v>9.772094111564927</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17221.01575883127</v>
+        <v>17221.03705748156</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1671.879320101129</v>
+        <v>1671.764319777956</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11407.01387727012</v>
+        <v>11407.02874888249</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3937.861491325564</v>
+        <v>3937.866466641233</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2844.92669560079</v>
+        <v>2844.930290041174</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10560.47010965138</v>
+        <v>10560.48345234322</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19015.13761667886</v>
+        <v>19015.04452880358</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8658382444533774</v>
+        <v>0.8657115449487586</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>460.3383117829218</v>
+        <v>460.3392132249674</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>865.3036769111275</v>
+        <v>865.3046962498975</v>
       </c>
       <c r="E6" t="n">
         <v>517.99365816</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>304.2453116330873</v>
+        <v>304.240126177847</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>692.0137559742857</v>
+        <v>692.0081039279023</v>
       </c>
       <c r="E7" t="n">
         <v>517.99365816</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>236.1708396993116</v>
+        <v>236.170779632634</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>618.3696786400048</v>
+        <v>618.3696141300611</v>
       </c>
       <c r="E8" t="n">
         <v>517.99365816</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>235.2480905924225</v>
+        <v>235.2480294688293</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>617.3787652440452</v>
+        <v>617.3786996113895</v>
       </c>
       <c r="E9" t="n">
         <v>517.99365816</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>176.0692683598477</v>
+        <v>176.0669382428715</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>554.1989739838302</v>
+        <v>554.1964998674417</v>
       </c>
       <c r="E10" t="n">
         <v>517.99365816</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>110.3873745448999</v>
+        <v>110.3940418681751</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>484.8207832778313</v>
+        <v>484.8277924792915</v>
       </c>
       <c r="E11" t="n">
         <v>517.99365816</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>502.6617192039893</v>
+        <v>502.6647348665979</v>
       </c>
       <c r="C3" t="n">
-        <v>7.786708472606461</v>
+        <v>7.78603698886672</v>
       </c>
       <c r="D3" t="n">
-        <v>3408.606281919731</v>
+        <v>3408.621468471262</v>
       </c>
       <c r="E3" t="n">
-        <v>61.87621174048643</v>
+        <v>61.87270770242757</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.2013964065006</v>
+        <v>296.1958730956172</v>
       </c>
       <c r="C4" t="n">
-        <v>8.137670318525089</v>
+        <v>8.137029140343783</v>
       </c>
       <c r="D4" t="n">
-        <v>2756.619758819161</v>
+        <v>2756.629446945444</v>
       </c>
       <c r="E4" t="n">
-        <v>61.87621174048643</v>
+        <v>61.87270770242757</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.5708950498469</v>
+        <v>295.5678464902049</v>
       </c>
       <c r="C5" t="n">
-        <v>8.137670318525089</v>
+        <v>8.137029140343783</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.333051558905</v>
+        <v>1320.316573112633</v>
       </c>
       <c r="E5" t="n">
-        <v>61.87621174048643</v>
+        <v>61.87270770242757</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.9641129063245</v>
+        <v>166.9642634244839</v>
       </c>
       <c r="C6" t="n">
-        <v>8.137670318525089</v>
+        <v>8.137029140343783</v>
       </c>
       <c r="D6" t="n">
-        <v>709.9808676240725</v>
+        <v>709.9811537404958</v>
       </c>
       <c r="E6" t="n">
-        <v>61.87621174048643</v>
+        <v>61.87270770242757</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.7849550339995</v>
+        <v>164.7821718432485</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6972057847336898</v>
+        <v>0.6971576317433629</v>
       </c>
       <c r="D7" t="n">
-        <v>696.2987170626986</v>
+        <v>696.2865820396652</v>
       </c>
       <c r="E7" t="n">
-        <v>61.87621174048643</v>
+        <v>61.87270770242757</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.7463155006537</v>
+        <v>176.7446688359813</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6900320698598439</v>
+        <v>0.6899795497763305</v>
       </c>
       <c r="D8" t="n">
-        <v>2792.375779338134</v>
+        <v>2792.375243042242</v>
       </c>
       <c r="E8" t="n">
-        <v>17.05433061317406</v>
+        <v>17.05308181375374</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>164.784954897597</v>
+        <v>164.7821717068509</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6972057847336898</v>
+        <v>0.6971576317433629</v>
       </c>
       <c r="D9" t="n">
-        <v>2762.583859132047</v>
+        <v>2762.580940113723</v>
       </c>
       <c r="E9" t="n">
-        <v>17.05433061317406</v>
+        <v>17.05308181375374</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164.7849550339995</v>
+        <v>164.7821718432485</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6972057847336898</v>
+        <v>0.6971576317433629</v>
       </c>
       <c r="D10" t="n">
-        <v>732.2823212086239</v>
+        <v>732.2641889548637</v>
       </c>
       <c r="E10" t="n">
-        <v>78.93054235366048</v>
+        <v>78.92578951618131</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>164.7849550339995</v>
+        <v>164.7821718432485</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6972057847336898</v>
+        <v>0.6971576317433629</v>
       </c>
       <c r="D11" t="n">
-        <v>732.2823212086239</v>
+        <v>732.2641889548637</v>
       </c>
       <c r="E11" t="n">
-        <v>78.93054235366048</v>
+        <v>78.92578951618131</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>67.11583635711372</v>
+        <v>67.11973901329435</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6972057847336898</v>
+        <v>0.6971576317433629</v>
       </c>
       <c r="D12" t="n">
-        <v>281.530468866014</v>
+        <v>281.5468098210485</v>
       </c>
       <c r="E12" t="n">
-        <v>78.93054235366048</v>
+        <v>78.92578951618131</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>67.11619455291282</v>
+        <v>67.11993557534566</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>281.5319686804715</v>
+        <v>281.5476328534745</v>
       </c>
       <c r="E13" t="n">
-        <v>75.60917108315546</v>
+        <v>75.6012307118839</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>67.11619455291282</v>
+        <v>67.11993557534566</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>281.5319686804715</v>
+        <v>281.5476328534745</v>
       </c>
       <c r="E14" t="n">
-        <v>75.60917108315546</v>
+        <v>75.6012307118839</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>108.1340360166676</v>
+        <v>108.1363257453007</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1346202889062748</v>
+        <v>0.134630759850292</v>
       </c>
       <c r="D15" t="n">
-        <v>453.5212757903315</v>
+        <v>453.5309593580455</v>
       </c>
       <c r="E15" t="n">
-        <v>67.54166769204203</v>
+        <v>67.54105688539921</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72.49904030991763</v>
+        <v>72.49930152780757</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1346207157511814</v>
+        <v>0.1346313111893363</v>
       </c>
       <c r="D16" t="n">
-        <v>303.6226099880016</v>
+        <v>303.6237134929984</v>
       </c>
       <c r="E16" t="n">
-        <v>67.5424260605448</v>
+        <v>67.54111354959048</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>90.12625638485301</v>
+        <v>90.12730659114128</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>377.3586354833795</v>
+        <v>377.3630326971086</v>
       </c>
       <c r="E19" t="n">
         <v>87.9265171982256</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>121.5340779066304</v>
+        <v>121.5344773988735</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2085286746681696</v>
+        <v>0.2085246177774039</v>
       </c>
       <c r="D20" t="n">
-        <v>2687.419991696409</v>
+        <v>2687.440334918972</v>
       </c>
       <c r="E20" t="n">
-        <v>15.87580981022812</v>
+        <v>15.87278382514044</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>119.9089612363369</v>
+        <v>119.9083472935372</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1981022409347611</v>
+        <v>0.1980983868885337</v>
       </c>
       <c r="D21" t="n">
-        <v>503.4249731056455</v>
+        <v>503.4223652158937</v>
       </c>
       <c r="E21" t="n">
-        <v>15.87580981022812</v>
+        <v>15.87278382514044</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>104.7545361445117</v>
+        <v>104.7566514642501</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>438.6072428370705</v>
+        <v>438.6160996808153</v>
       </c>
       <c r="E22" t="n">
         <v>697.9906283231664</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>66.3297163932088</v>
+        <v>66.32984868865449</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>109.6509287195349</v>
+        <v>109.6532393342354</v>
       </c>
       <c r="C25" t="n">
-        <v>0.141705567269763</v>
+        <v>0.1417165893160969</v>
       </c>
       <c r="D25" t="n">
-        <v>2633.642243629448</v>
+        <v>2633.671233976803</v>
       </c>
       <c r="E25" t="n">
-        <v>51.66597533787714</v>
+        <v>51.66836126844175</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>499.8965006760212</v>
+        <v>499.8994451731825</v>
       </c>
       <c r="C26" t="n">
-        <v>7.21431252768452</v>
+        <v>7.213636716127845</v>
       </c>
       <c r="D26" t="n">
-        <v>3408.606281919731</v>
+        <v>3408.621468471262</v>
       </c>
       <c r="E26" t="n">
-        <v>58.55423855941874</v>
+        <v>58.5484340271787</v>
       </c>
       <c r="F26" t="n">
-        <v>6.783209891613034</v>
+        <v>6.783270304377067</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>191.5290870132928</v>
+        <v>191.5338886320289</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5094480290884161</v>
+        <v>0.5094105351611026</v>
       </c>
       <c r="D27" t="n">
-        <v>2837.067523522383</v>
+        <v>2837.0800424111</v>
       </c>
       <c r="E27" t="n">
-        <v>58.55423855941874</v>
+        <v>58.5484340271787</v>
       </c>
       <c r="F27" t="n">
-        <v>7.01259276109436</v>
+        <v>7.012652663549885</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>173.8079737807039</v>
+        <v>173.8062335777025</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5922209594114052</v>
+        <v>0.5921713438704974</v>
       </c>
       <c r="D28" t="n">
-        <v>2792.375779338134</v>
+        <v>2792.375243042242</v>
       </c>
       <c r="E28" t="n">
-        <v>17.05433061317406</v>
+        <v>17.05308181375374</v>
       </c>
       <c r="F28" t="n">
-        <v>6.847468999733723</v>
+        <v>6.847504854292022</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>186.8981438570459</v>
+        <v>186.9014272328572</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5094480290884161</v>
+        <v>0.5094105351611026</v>
       </c>
       <c r="D29" t="n">
-        <v>2826.986817203795</v>
+        <v>2826.996189030322</v>
       </c>
       <c r="E29" t="n">
-        <v>75.60856917259279</v>
+        <v>75.60151584093244</v>
       </c>
       <c r="F29" t="n">
-        <v>6.990789907044303</v>
+        <v>6.990843193453414</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>121.5343535956829</v>
+        <v>121.5342808036314</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2085227455945892</v>
+        <v>0.2085222691030402</v>
       </c>
       <c r="D30" t="n">
-        <v>2687.421148991266</v>
+        <v>2687.439509616145</v>
       </c>
       <c r="E30" t="n">
-        <v>75.60856917259279</v>
+        <v>75.60151584093244</v>
       </c>
       <c r="F30" t="n">
-        <v>7.060460109303156</v>
+        <v>7.060507647689231</v>
       </c>
       <c r="G30" t="n">
-        <v>99.05703203450918</v>
+        <v>99.05787229998373</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>109.6511399854414</v>
+        <v>109.6531997658546</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1417065750167248</v>
+        <v>0.1417164005618883</v>
       </c>
       <c r="D31" t="n">
-        <v>2633.64313438054</v>
+        <v>2633.671125421354</v>
       </c>
       <c r="E31" t="n">
-        <v>59.73287681842791</v>
+        <v>59.72882022397497</v>
       </c>
       <c r="F31" t="n">
-        <v>7.093392369633005</v>
+        <v>7.093434909623312</v>
       </c>
       <c r="G31" t="n">
-        <v>97.44965190677519</v>
+        <v>97.45075991633722</v>
       </c>
     </row>
     <row r="32">
@@ -5301,19 +5301,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>72.28405338104761</v>
+        <v>72.29743485631292</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01535863129661181</v>
+        <v>0.01534658916773092</v>
       </c>
       <c r="D32" t="n">
-        <v>2633.64313438054</v>
+        <v>2633.671125421354</v>
       </c>
       <c r="E32" t="n">
-        <v>8.066745022610661</v>
+        <v>8.060117162293423</v>
       </c>
       <c r="F32" t="n">
-        <v>8.101398838414044</v>
+        <v>8.1018406605595</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -5326,19 +5326,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>45.81801155638755</v>
+        <v>45.87610521868436</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002465409593553934</v>
+        <v>0.002465017201669467</v>
       </c>
       <c r="D33" t="n">
-        <v>2586.148424084014</v>
+        <v>2586.257953674164</v>
       </c>
       <c r="E33" t="n">
-        <v>8.066745022610661</v>
+        <v>8.060117162293423</v>
       </c>
       <c r="F33" t="n">
-        <v>8.801054351846082</v>
+        <v>8.801471107918328</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>20.85026982803612</v>
+        <v>20.84768341691887</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002465409593553934</v>
+        <v>0.002465017201669467</v>
       </c>
       <c r="D34" t="n">
-        <v>87.47185152751435</v>
+        <v>87.46103016544289</v>
       </c>
       <c r="E34" t="n">
-        <v>8.066745022610661</v>
+        <v>8.060117162293423</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>22.87015789059666</v>
+        <v>22.86756939220567</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>96.56820659778303</v>
+        <v>96.55738529487229</v>
       </c>
       <c r="E35" t="n">
-        <v>8.066745022610661</v>
+        <v>8.060117162293423</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>493.3040443616732</v>
+        <v>493.3040033572908</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3453.475054959801</v>
+        <v>3453.474964573633</v>
       </c>
       <c r="E40" t="n">
-        <v>5.082071073668835</v>
+        <v>5.08207749464324</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>508.3040443616732</v>
+        <v>508.3040033572908</v>
       </c>
       <c r="C42" t="n">
-        <v>7.090123822779995</v>
+        <v>7.089871969799725</v>
       </c>
       <c r="D42" t="n">
-        <v>3430.4751218283</v>
+        <v>3430.476658477332</v>
       </c>
       <c r="E42" t="n">
-        <v>6.046438627024849</v>
+        <v>6.046405665421933</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
